--- a/test/b.xlsx
+++ b/test/b.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\xl-conflict-solver\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BAA9E7-C847-4681-9261-0CF88BEEB229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -25,8 +24,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +38,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -62,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -343,33 +350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>111</v>
       </c>
       <c r="B1">
         <v>222</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>333</v>
       </c>
       <c r="D1">
-        <v>444</v>
-      </c>
-      <c r="E1">
-        <v>555</v>
-      </c>
-      <c r="F1">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/b.xlsx
+++ b/test/b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -370,7 +370,7 @@
         <v>333</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/test/b.xlsx
+++ b/test/b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver2\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\xl-conflict-solver\xl-conflict-solver\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>111</v>
       </c>
@@ -371,6 +371,9 @@
       </c>
       <c r="D1">
         <v>666</v>
+      </c>
+      <c r="E1">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
